--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fgf18-Fgfr1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fgf18-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.71390131936502</v>
+        <v>2.767962666666667</v>
       </c>
       <c r="H2">
-        <v>2.71390131936502</v>
+        <v>8.303888000000001</v>
       </c>
       <c r="I2">
-        <v>0.7757490524393041</v>
+        <v>0.6703478441031137</v>
       </c>
       <c r="J2">
-        <v>0.7757490524393041</v>
+        <v>0.717797521317681</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.60535367622028</v>
+        <v>6.743825</v>
       </c>
       <c r="N2">
-        <v>5.60535367622028</v>
+        <v>20.231475</v>
       </c>
       <c r="O2">
-        <v>0.05584722159123625</v>
+        <v>0.06175298453338176</v>
       </c>
       <c r="P2">
-        <v>0.05584722159123625</v>
+        <v>0.06809253940846915</v>
       </c>
       <c r="Q2">
-        <v>15.21237673740178</v>
+        <v>18.66665583053334</v>
       </c>
       <c r="R2">
-        <v>15.21237673740178</v>
+        <v>167.9999024748</v>
       </c>
       <c r="S2">
-        <v>0.04332342923076937</v>
+        <v>0.04139598004888539</v>
       </c>
       <c r="T2">
-        <v>0.04332342923076937</v>
+        <v>0.04887665600762568</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.71390131936502</v>
+        <v>2.767962666666667</v>
       </c>
       <c r="H3">
-        <v>2.71390131936502</v>
+        <v>8.303888000000001</v>
       </c>
       <c r="I3">
-        <v>0.7757490524393041</v>
+        <v>0.6703478441031137</v>
       </c>
       <c r="J3">
-        <v>0.7757490524393041</v>
+        <v>0.717797521317681</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>64.7764970017265</v>
+        <v>69.657865</v>
       </c>
       <c r="N3">
-        <v>64.7764970017265</v>
+        <v>208.973595</v>
       </c>
       <c r="O3">
-        <v>0.6453807539935337</v>
+        <v>0.6378547871531949</v>
       </c>
       <c r="P3">
-        <v>0.6453807539935337</v>
+        <v>0.7033368922862506</v>
       </c>
       <c r="Q3">
-        <v>175.7970206768298</v>
+        <v>192.8103697597067</v>
       </c>
       <c r="R3">
-        <v>175.7970206768298</v>
+        <v>1735.29332783736</v>
       </c>
       <c r="S3">
-        <v>0.5006535083730475</v>
+        <v>0.4275845814189946</v>
       </c>
       <c r="T3">
-        <v>0.5006535083730475</v>
+        <v>0.5048534779343515</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.71390131936502</v>
+        <v>2.767962666666667</v>
       </c>
       <c r="H4">
-        <v>2.71390131936502</v>
+        <v>8.303888000000001</v>
       </c>
       <c r="I4">
-        <v>0.7757490524393041</v>
+        <v>0.6703478441031137</v>
       </c>
       <c r="J4">
-        <v>0.7757490524393041</v>
+        <v>0.717797521317681</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.876596304595289</v>
+        <v>1.263827666666667</v>
       </c>
       <c r="N4">
-        <v>0.876596304595289</v>
+        <v>3.791483</v>
       </c>
       <c r="O4">
-        <v>0.008733698334946614</v>
+        <v>0.01157282852869501</v>
       </c>
       <c r="P4">
-        <v>0.008733698334946614</v>
+        <v>0.01276089388411081</v>
       </c>
       <c r="Q4">
-        <v>2.378995867591656</v>
+        <v>3.498227798433778</v>
       </c>
       <c r="R4">
-        <v>2.378995867591656</v>
+        <v>31.484050185904</v>
       </c>
       <c r="S4">
-        <v>0.006775158207625564</v>
+        <v>0.007757820654385707</v>
       </c>
       <c r="T4">
-        <v>0.006775158207625564</v>
+        <v>0.009159737999812697</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.71390131936502</v>
+        <v>2.767962666666667</v>
       </c>
       <c r="H5">
-        <v>2.71390131936502</v>
+        <v>8.303888000000001</v>
       </c>
       <c r="I5">
-        <v>0.7757490524393041</v>
+        <v>0.6703478441031137</v>
       </c>
       <c r="J5">
-        <v>0.7757490524393041</v>
+        <v>0.717797521317681</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.525766097696802</v>
+        <v>1.038909</v>
       </c>
       <c r="N5">
-        <v>0.525766097696802</v>
+        <v>3.116727</v>
       </c>
       <c r="O5">
-        <v>0.005238309205679277</v>
+        <v>0.009513255668495419</v>
       </c>
       <c r="P5">
-        <v>0.005238309205679277</v>
+        <v>0.01048988549144043</v>
       </c>
       <c r="Q5">
-        <v>1.426877306216749</v>
+        <v>2.875661326064001</v>
       </c>
       <c r="R5">
-        <v>1.426877306216749</v>
+        <v>25.880951934576</v>
       </c>
       <c r="S5">
-        <v>0.004063613402689783</v>
+        <v>0.006377190427777629</v>
       </c>
       <c r="T5">
-        <v>0.004063613402689783</v>
+        <v>0.007529613804662247</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.71390131936502</v>
+        <v>2.767962666666667</v>
       </c>
       <c r="H6">
-        <v>2.71390131936502</v>
+        <v>8.303888000000001</v>
       </c>
       <c r="I6">
-        <v>0.7757490524393041</v>
+        <v>0.6703478441031137</v>
       </c>
       <c r="J6">
-        <v>0.7757490524393041</v>
+        <v>0.717797521317681</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.5852147356633</v>
+        <v>30.502036</v>
       </c>
       <c r="N6">
-        <v>28.5852147356633</v>
+        <v>61.004072</v>
       </c>
       <c r="O6">
-        <v>0.2848000168746042</v>
+        <v>0.2793061441162328</v>
       </c>
       <c r="P6">
-        <v>0.2848000168746042</v>
+        <v>0.205319788929729</v>
       </c>
       <c r="Q6">
-        <v>77.57745198544904</v>
+        <v>84.42849690532267</v>
       </c>
       <c r="R6">
-        <v>77.57745198544904</v>
+        <v>506.570981431936</v>
       </c>
       <c r="S6">
-        <v>0.220933343225172</v>
+        <v>0.1872322715530702</v>
       </c>
       <c r="T6">
-        <v>0.220933343225172</v>
+        <v>0.1473780355712289</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.784525537659546</v>
+        <v>0.1393433333333333</v>
       </c>
       <c r="H7">
-        <v>0.784525537659546</v>
+        <v>0.41803</v>
       </c>
       <c r="I7">
-        <v>0.2242509475606959</v>
+        <v>0.03374630164453381</v>
       </c>
       <c r="J7">
-        <v>0.2242509475606959</v>
+        <v>0.03613498855432903</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.60535367622028</v>
+        <v>6.743825</v>
       </c>
       <c r="N7">
-        <v>5.60535367622028</v>
+        <v>20.231475</v>
       </c>
       <c r="O7">
-        <v>0.05584722159123625</v>
+        <v>0.06175298453338176</v>
       </c>
       <c r="P7">
-        <v>0.05584722159123625</v>
+        <v>0.06809253940846915</v>
       </c>
       <c r="Q7">
-        <v>4.397543106608627</v>
+        <v>0.9397070549166667</v>
       </c>
       <c r="R7">
-        <v>4.397543106608627</v>
+        <v>8.45736349425</v>
       </c>
       <c r="S7">
-        <v>0.01252379236046688</v>
+        <v>0.002083934843513732</v>
       </c>
       <c r="T7">
-        <v>0.01252379236046688</v>
+        <v>0.002460523132160232</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.784525537659546</v>
+        <v>0.1393433333333333</v>
       </c>
       <c r="H8">
-        <v>0.784525537659546</v>
+        <v>0.41803</v>
       </c>
       <c r="I8">
-        <v>0.2242509475606959</v>
+        <v>0.03374630164453381</v>
       </c>
       <c r="J8">
-        <v>0.2242509475606959</v>
+        <v>0.03613498855432903</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>64.7764970017265</v>
+        <v>69.657865</v>
       </c>
       <c r="N8">
-        <v>64.7764970017265</v>
+        <v>208.973595</v>
       </c>
       <c r="O8">
-        <v>0.6453807539935337</v>
+        <v>0.6378547871531949</v>
       </c>
       <c r="P8">
-        <v>0.6453807539935337</v>
+        <v>0.7033368922862506</v>
       </c>
       <c r="Q8">
-        <v>50.81881613798145</v>
+        <v>9.706359101983335</v>
       </c>
       <c r="R8">
-        <v>50.81881613798145</v>
+        <v>87.35723191785</v>
       </c>
       <c r="S8">
-        <v>0.1447272456204863</v>
+        <v>0.02152524005268163</v>
       </c>
       <c r="T8">
-        <v>0.1447272456204863</v>
+        <v>0.02541507055260102</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.784525537659546</v>
+        <v>0.1393433333333333</v>
       </c>
       <c r="H9">
-        <v>0.784525537659546</v>
+        <v>0.41803</v>
       </c>
       <c r="I9">
-        <v>0.2242509475606959</v>
+        <v>0.03374630164453381</v>
       </c>
       <c r="J9">
-        <v>0.2242509475606959</v>
+        <v>0.03613498855432903</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.876596304595289</v>
+        <v>1.263827666666667</v>
       </c>
       <c r="N9">
-        <v>0.876596304595289</v>
+        <v>3.791483</v>
       </c>
       <c r="O9">
-        <v>0.008733698334946614</v>
+        <v>0.01157282852869501</v>
       </c>
       <c r="P9">
-        <v>0.008733698334946614</v>
+        <v>0.01276089388411081</v>
       </c>
       <c r="Q9">
-        <v>0.6877121871729903</v>
+        <v>0.1761059598322222</v>
       </c>
       <c r="R9">
-        <v>0.6877121871729903</v>
+        <v>1.58495363849</v>
       </c>
       <c r="S9">
-        <v>0.00195854012732105</v>
+        <v>0.0003905401624098082</v>
       </c>
       <c r="T9">
-        <v>0.00195854012732105</v>
+        <v>0.0004611147544453517</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.784525537659546</v>
+        <v>0.1393433333333333</v>
       </c>
       <c r="H10">
-        <v>0.784525537659546</v>
+        <v>0.41803</v>
       </c>
       <c r="I10">
-        <v>0.2242509475606959</v>
+        <v>0.03374630164453381</v>
       </c>
       <c r="J10">
-        <v>0.2242509475606959</v>
+        <v>0.03613498855432903</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.525766097696802</v>
+        <v>1.038909</v>
       </c>
       <c r="N10">
-        <v>0.525766097696802</v>
+        <v>3.116727</v>
       </c>
       <c r="O10">
-        <v>0.005238309205679277</v>
+        <v>0.009513255668495419</v>
       </c>
       <c r="P10">
-        <v>0.005238309205679277</v>
+        <v>0.01048988549144043</v>
       </c>
       <c r="Q10">
-        <v>0.412476930478745</v>
+        <v>0.14476504309</v>
       </c>
       <c r="R10">
-        <v>0.412476930478745</v>
+        <v>1.30288538781</v>
       </c>
       <c r="S10">
-        <v>0.001174695802989494</v>
+        <v>0.0003210371954106176</v>
       </c>
       <c r="T10">
-        <v>0.001174695802989494</v>
+        <v>0.0003790518921694222</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,681 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1393433333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.41803</v>
+      </c>
+      <c r="I11">
+        <v>0.03374630164453381</v>
+      </c>
+      <c r="J11">
+        <v>0.03613498855432903</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>30.502036</v>
+      </c>
+      <c r="N11">
+        <v>61.004072</v>
+      </c>
+      <c r="O11">
+        <v>0.2793061441162328</v>
+      </c>
+      <c r="P11">
+        <v>0.205319788929729</v>
+      </c>
+      <c r="Q11">
+        <v>4.250255369693334</v>
+      </c>
+      <c r="R11">
+        <v>25.50153221816</v>
+      </c>
+      <c r="S11">
+        <v>0.009425549390518024</v>
+      </c>
+      <c r="T11">
+        <v>0.007419228222953011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.4029723333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.208917</v>
+      </c>
+      <c r="I12">
+        <v>0.09759222482885171</v>
+      </c>
+      <c r="J12">
+        <v>0.1045001601754271</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>6.743825</v>
+      </c>
+      <c r="N12">
+        <v>20.231475</v>
+      </c>
+      <c r="O12">
+        <v>0.06175298453338176</v>
+      </c>
+      <c r="P12">
+        <v>0.06809253940846915</v>
+      </c>
+      <c r="Q12">
+        <v>2.717574895841667</v>
+      </c>
+      <c r="R12">
+        <v>24.458174062575</v>
+      </c>
+      <c r="S12">
+        <v>0.006026611150434395</v>
+      </c>
+      <c r="T12">
+        <v>0.007115681274936609</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.4029723333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.208917</v>
+      </c>
+      <c r="I13">
+        <v>0.09759222482885171</v>
+      </c>
+      <c r="J13">
+        <v>0.1045001601754271</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>69.657865</v>
+      </c>
+      <c r="N13">
+        <v>208.973595</v>
+      </c>
+      <c r="O13">
+        <v>0.6378547871531949</v>
+      </c>
+      <c r="P13">
+        <v>0.7033368922862506</v>
+      </c>
+      <c r="Q13">
+        <v>28.07019239406833</v>
+      </c>
+      <c r="R13">
+        <v>252.631731546615</v>
+      </c>
+      <c r="S13">
+        <v>0.06224966779601395</v>
+      </c>
+      <c r="T13">
+        <v>0.0734988179012003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.4029723333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.208917</v>
+      </c>
+      <c r="I14">
+        <v>0.09759222482885171</v>
+      </c>
+      <c r="J14">
+        <v>0.1045001601754271</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.263827666666667</v>
+      </c>
+      <c r="N14">
+        <v>3.791483</v>
+      </c>
+      <c r="O14">
+        <v>0.01157282852869501</v>
+      </c>
+      <c r="P14">
+        <v>0.01276089388411081</v>
+      </c>
+      <c r="Q14">
+        <v>0.5092875837678889</v>
+      </c>
+      <c r="R14">
+        <v>4.583588253911</v>
+      </c>
+      <c r="S14">
+        <v>0.001129418083678152</v>
+      </c>
+      <c r="T14">
+        <v>0.001333515454871208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.4029723333333333</v>
+      </c>
+      <c r="H15">
+        <v>1.208917</v>
+      </c>
+      <c r="I15">
+        <v>0.09759222482885171</v>
+      </c>
+      <c r="J15">
+        <v>0.1045001601754271</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.038909</v>
+      </c>
+      <c r="N15">
+        <v>3.116727</v>
+      </c>
+      <c r="O15">
+        <v>0.009513255668495419</v>
+      </c>
+      <c r="P15">
+        <v>0.01048988549144043</v>
+      </c>
+      <c r="Q15">
+        <v>0.418651583851</v>
+      </c>
+      <c r="R15">
+        <v>3.767864254659</v>
+      </c>
+      <c r="S15">
+        <v>0.000928419786054153</v>
+      </c>
+      <c r="T15">
+        <v>0.001096194714077414</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.4029723333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.208917</v>
+      </c>
+      <c r="I16">
+        <v>0.09759222482885171</v>
+      </c>
+      <c r="J16">
+        <v>0.1045001601754271</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>30.502036</v>
+      </c>
+      <c r="N16">
+        <v>61.004072</v>
+      </c>
+      <c r="O16">
+        <v>0.2793061441162328</v>
+      </c>
+      <c r="P16">
+        <v>0.205319788929729</v>
+      </c>
+      <c r="Q16">
+        <v>12.29147661833733</v>
+      </c>
+      <c r="R16">
+        <v>73.74885971002401</v>
+      </c>
+      <c r="S16">
+        <v>0.02725810801267105</v>
+      </c>
+      <c r="T16">
+        <v>0.02145595083034156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.8188655</v>
+      </c>
+      <c r="H17">
+        <v>1.637731</v>
+      </c>
+      <c r="I17">
+        <v>0.1983136294235007</v>
+      </c>
+      <c r="J17">
+        <v>0.1415673299525628</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.743825</v>
+      </c>
+      <c r="N17">
+        <v>20.231475</v>
+      </c>
+      <c r="O17">
+        <v>0.06175298453338176</v>
+      </c>
+      <c r="P17">
+        <v>0.06809253940846915</v>
+      </c>
+      <c r="Q17">
+        <v>5.522285630537501</v>
+      </c>
+      <c r="R17">
+        <v>33.133713783225</v>
+      </c>
+      <c r="S17">
+        <v>0.01224645849054824</v>
+      </c>
+      <c r="T17">
+        <v>0.009639678993746639</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.8188655</v>
+      </c>
+      <c r="H18">
+        <v>1.637731</v>
+      </c>
+      <c r="I18">
+        <v>0.1983136294235007</v>
+      </c>
+      <c r="J18">
+        <v>0.1415673299525628</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>69.657865</v>
+      </c>
+      <c r="N18">
+        <v>208.973595</v>
+      </c>
+      <c r="O18">
+        <v>0.6378547871531949</v>
+      </c>
+      <c r="P18">
+        <v>0.7033368922862506</v>
+      </c>
+      <c r="Q18">
+        <v>57.0404224521575</v>
+      </c>
+      <c r="R18">
+        <v>342.242534712945</v>
+      </c>
+      <c r="S18">
+        <v>0.1264952978855046</v>
+      </c>
+      <c r="T18">
+        <v>0.09956952589809778</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.784525537659546</v>
-      </c>
-      <c r="H11">
-        <v>0.784525537659546</v>
-      </c>
-      <c r="I11">
-        <v>0.2242509475606959</v>
-      </c>
-      <c r="J11">
-        <v>0.2242509475606959</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>28.5852147356633</v>
-      </c>
-      <c r="N11">
-        <v>28.5852147356633</v>
-      </c>
-      <c r="O11">
-        <v>0.2848000168746042</v>
-      </c>
-      <c r="P11">
-        <v>0.2848000168746042</v>
-      </c>
-      <c r="Q11">
-        <v>22.42583095960983</v>
-      </c>
-      <c r="R11">
-        <v>22.42583095960983</v>
-      </c>
-      <c r="S11">
-        <v>0.06386667364943215</v>
-      </c>
-      <c r="T11">
-        <v>0.06386667364943215</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.8188655</v>
+      </c>
+      <c r="H19">
+        <v>1.637731</v>
+      </c>
+      <c r="I19">
+        <v>0.1983136294235007</v>
+      </c>
+      <c r="J19">
+        <v>0.1415673299525628</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.263827666666667</v>
+      </c>
+      <c r="N19">
+        <v>3.791483</v>
+      </c>
+      <c r="O19">
+        <v>0.01157282852869501</v>
+      </c>
+      <c r="P19">
+        <v>0.01276089388411081</v>
+      </c>
+      <c r="Q19">
+        <v>1.034904874178833</v>
+      </c>
+      <c r="R19">
+        <v>6.209429245073</v>
+      </c>
+      <c r="S19">
+        <v>0.002295049628221339</v>
+      </c>
+      <c r="T19">
+        <v>0.001806525674981557</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.8188655</v>
+      </c>
+      <c r="H20">
+        <v>1.637731</v>
+      </c>
+      <c r="I20">
+        <v>0.1983136294235007</v>
+      </c>
+      <c r="J20">
+        <v>0.1415673299525628</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.038909</v>
+      </c>
+      <c r="N20">
+        <v>3.116727</v>
+      </c>
+      <c r="O20">
+        <v>0.009513255668495419</v>
+      </c>
+      <c r="P20">
+        <v>0.01048988549144043</v>
+      </c>
+      <c r="Q20">
+        <v>0.8507267377395001</v>
+      </c>
+      <c r="R20">
+        <v>5.104360426437</v>
+      </c>
+      <c r="S20">
+        <v>0.001886608259253018</v>
+      </c>
+      <c r="T20">
+        <v>0.001485025080531349</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.8188655</v>
+      </c>
+      <c r="H21">
+        <v>1.637731</v>
+      </c>
+      <c r="I21">
+        <v>0.1983136294235007</v>
+      </c>
+      <c r="J21">
+        <v>0.1415673299525628</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>30.502036</v>
+      </c>
+      <c r="N21">
+        <v>61.004072</v>
+      </c>
+      <c r="O21">
+        <v>0.2793061441162328</v>
+      </c>
+      <c r="P21">
+        <v>0.205319788929729</v>
+      </c>
+      <c r="Q21">
+        <v>24.977064960158</v>
+      </c>
+      <c r="R21">
+        <v>99.908259840632</v>
+      </c>
+      <c r="S21">
+        <v>0.05539021515997348</v>
+      </c>
+      <c r="T21">
+        <v>0.0290665743052055</v>
       </c>
     </row>
   </sheetData>
